--- a/exampleProblems/2-ethyl-1-indanone-bckup/2-ethyl-1-indanone_bckup.xlsx
+++ b/exampleProblems/2-ethyl-1-indanone-bckup/2-ethyl-1-indanone_bckup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/2-ethyl-1-indanone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/2-ethyl-1-indanone-bckup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_1B5B6F352AD0005635F3E51CCB4B55276CBFB855" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF9CD6E3-4261-4B4C-BDB4-C7BB509F55BF}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_1B5B6F352AD0005635F3E51CCB4B55276CBFB855" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF4EB7E6-D539-4CCF-A073-CAE6BCDDABFC}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="30" windowWidth="19260" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -344,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -371,9 +371,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -699,7 +696,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,9 +985,7 @@
       <c r="G10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="6" t="s">
         <v>12</v>
       </c>
@@ -2457,7 +2452,7 @@
       <c r="I10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="10"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="6"/>
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
@@ -2756,17 +2751,17 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="13"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="12"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -4302,12 +4297,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -4524,6 +4513,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
@@ -4533,23 +4528,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4566,4 +4544,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>